--- a/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
+++ b/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008838</t>
+          <t>001430</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
+          <t>中邮乐享收益灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.58</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008839</t>
+          <t>005774</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
+          <t>华夏产业升级混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>66.58</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000354</t>
+          <t>002289</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛城镇化主题混合</t>
+          <t>华商改革创新股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002289</t>
+          <t>008838</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商改革创新股票</t>
+          <t>德邦量化对冲策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.49</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001430</t>
+          <t>000354</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮乐享收益灵活配置混合</t>
+          <t>长盛城镇化主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30.29</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>90.83</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.08</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>167703</t>
+          <t>005947</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>德邦量化优选股票(LOF)C</t>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>92.31</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>167706</t>
+          <t>008839</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) C</t>
+          <t>德邦量化对冲策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005947</t>
+          <t>167703</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
+          <t>德邦量化优选股票(LOF)C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005948</t>
+          <t>167706</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
+          <t>德邦量化新锐股票(LOF) C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005774</t>
+          <t>005948</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏产业升级混合</t>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.19</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
+++ b/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,514 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
+++ b/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1560,4 +1561,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4821</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6496</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5790</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4333</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
+++ b/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2111,4 +2112,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
+++ b/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2120,7 +2121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2131,17 +2132,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2151,14 +2172,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.59</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2167,14 +2210,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.83</v>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6906</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2183,14 +2248,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2199,13 +2286,721 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6049</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
+++ b/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2899,7 +2900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2910,17 +2911,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2930,14 +2951,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.79</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2946,14 +2989,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.59</v>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2962,14 +3027,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.83</v>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4822</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2978,14 +3065,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2994,13 +3103,887 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3398</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
+++ b/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3866,7 +3867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3877,17 +3878,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3897,14 +3918,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.97</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3913,14 +3956,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.79</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3929,14 +3994,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.59</v>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9817</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3945,14 +4032,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.83</v>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3425</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3961,14 +4070,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.06</v>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7581</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3977,13 +4108,1323 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5085</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3783</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009395</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
+++ b/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>13.42</v>
+        <v>24.07</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>5.97</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>6.79</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>7.59</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>6.83</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -600,6 +617,2340 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6689</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5933</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7554</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3082</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1729</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9706</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9537</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9453</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7510</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6999</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6123</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5847</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5624</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5072</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5047</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3694</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>38.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>62.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2023,7 +4374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2989,7 +5340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3767,7 +6118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4317,7 +6668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4827,7 +7178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4921,7 +7272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
+++ b/数据整理/stocks/A股/深证主板/000738-航发控制.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>24.07</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>13.42</v>
+        <v>24.07</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>5.97</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>6.79</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>7.59</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>6.83</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -616,7 +633,2925 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4335</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2951</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>109.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9330</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5203</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3057</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7786</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7138</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6479</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6111</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5735</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5215</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4535</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>340001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全可转债混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2760</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009395</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015443</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>惠升惠享启睿混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014786</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015710</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏高端装备龙头混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015711</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏高端装备龙头混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>016113</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>016954</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>016114</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>016259</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015444</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>惠升惠享启睿混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014787</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2950,7 +5885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4374,7 +7309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5340,7 +8275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6118,7 +9053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6668,7 +9603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7178,7 +10113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7270,516 +10205,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001430</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮乐享收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>30.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0685</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005774</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏产业升级混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002289</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商改革创新股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008838</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000354</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长盛城镇化主题混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>167702</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>德邦量化优选股票(LOF)A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005947</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008839</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>167703</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>德邦量化优选股票(LOF)C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005948</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>